--- a/example/ExampleTaskDataset.xlsx
+++ b/example/ExampleTaskDataset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t xml:space="preserve">名稱</t>
   </si>
@@ -81,13 +81,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">A0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0103</t>
+    <t xml:space="preserve">60d272be4fad9739bc6915b9</t>
   </si>
   <si>
     <r>
@@ -382,9 +376,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -403,8 +397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2086920" y="161640"/>
-          <a:ext cx="113760" cy="161280"/>
+          <a:off x="2087280" y="162000"/>
+          <a:ext cx="113400" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -419,7 +413,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -427,7 +421,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>285120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -440,8 +434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2086920" y="647640"/>
-          <a:ext cx="285120" cy="161280"/>
+          <a:off x="2087280" y="647640"/>
+          <a:ext cx="284760" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -456,9 +450,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -477,8 +471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2086920" y="809280"/>
-          <a:ext cx="285120" cy="161280"/>
+          <a:off x="2087280" y="809640"/>
+          <a:ext cx="284760" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -493,9 +487,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -514,8 +508,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2086920" y="971280"/>
-          <a:ext cx="285120" cy="161280"/>
+          <a:off x="2087280" y="971640"/>
+          <a:ext cx="284760" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -530,9 +524,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -551,8 +545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2086920" y="1133280"/>
-          <a:ext cx="285120" cy="161280"/>
+          <a:off x="2087280" y="1133640"/>
+          <a:ext cx="284760" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -567,7 +561,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -575,7 +569,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>170640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -588,8 +582,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2086920" y="1295280"/>
-          <a:ext cx="170640" cy="161280"/>
+          <a:off x="2087280" y="1295280"/>
+          <a:ext cx="170280" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -604,7 +598,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -612,7 +606,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>113760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -625,8 +619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2086920" y="1457280"/>
-          <a:ext cx="113760" cy="161280"/>
+          <a:off x="2087280" y="1457280"/>
+          <a:ext cx="113400" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,14 +643,14 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
@@ -698,7 +692,7 @@
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>0.104166666666667</v>
@@ -706,7 +700,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.104166666666667</v>
@@ -714,10 +708,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
@@ -741,10 +735,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
